--- a/kerntabellen/ggw7_ELZantw.xlsx
+++ b/kerntabellen/ggw7_ELZantw.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gebiedsniveaus\kerntabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\kerntabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC71E7-8BC8-4B7C-9B0D-D77CCA2C9180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB29DB-A2B7-4FFB-BC9F-E2ADF522EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
   <si>
     <t>ELZantw</t>
   </si>
@@ -261,33 +261,6 @@
   </si>
   <si>
     <t>11040A6</t>
-  </si>
-  <si>
-    <t>11044A0</t>
-  </si>
-  <si>
-    <t>11044A1</t>
-  </si>
-  <si>
-    <t>11044A2</t>
-  </si>
-  <si>
-    <t>11044B0</t>
-  </si>
-  <si>
-    <t>11044B1</t>
-  </si>
-  <si>
-    <t>11052A0</t>
-  </si>
-  <si>
-    <t>11052A1</t>
-  </si>
-  <si>
-    <t>11052A2</t>
-  </si>
-  <si>
-    <t>11052A3</t>
   </si>
   <si>
     <t>ggw7</t>
@@ -363,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +376,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +411,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +446,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,32 +622,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -719,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -730,7 +669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -741,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -752,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -763,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -774,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -785,9 +724,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1104401</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -796,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -807,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -818,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -829,9 +768,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -840,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -851,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -862,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -873,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -884,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -895,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -906,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -917,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -928,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -939,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -950,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -961,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -972,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -983,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -994,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1005,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1016,32 +955,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
       <c r="C32">
         <v>4</v>
       </c>
@@ -1049,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1060,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1071,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1082,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1093,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1104,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1115,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1126,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1137,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1159,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1170,65 +1109,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
       <c r="C49">
         <v>4</v>
       </c>
@@ -1236,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1247,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1258,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1269,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1280,54 +1219,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
       <c r="C58">
         <v>4</v>
       </c>
@@ -1335,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1346,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1357,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1368,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1379,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1390,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1401,87 +1340,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
       <c r="C72">
         <v>4</v>
       </c>
@@ -1489,9 +1428,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1104402</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1500,9 +1439,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1104403</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1511,31 +1450,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1105201</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1105202</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1105203</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1544,9 +1483,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>81</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1105204</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1555,9 +1494,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>82</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1100703</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1566,9 +1505,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>83</v>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1100702</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -1577,10 +1516,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1100701</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D80">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:D81" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:D74">
+      <sortCondition ref="A1:A81"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
